--- a/medicine/Sexualité et sexologie/Sauna_gay/Sauna_gay.xlsx
+++ b/medicine/Sexualité et sexologie/Sauna_gay/Sauna_gay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un sauna gay (également connu sous le nom de bain gay) est un commerce permettant aux hommes d'avoir des relations sexuelles avec d'autres hommes dans le cadre d'un bain public.
 L'activité de baignade ou de sauna est secondaire par rapport à celle d'avoir une activité sexuelle. Les bains publics offrant des services similaires pour les femmes sont rares, mais certains bains publics pour hommes organisent parfois des soirées réservées aux femmes.
